--- a/usefulTools/How Might Time be Taken up.xlsx
+++ b/usefulTools/How Might Time be Taken up.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="35">
   <si>
     <t>Jobs</t>
   </si>
@@ -64,7 +64,7 @@
     <t>meetings, overhead, cleaning, answering the door, nonsense, team fun, assorted office tasks and being part of a university</t>
   </si>
   <si>
-    <t>Strictly urgent/emergency/critical (and testing by developer)  - Code Fixes, fix bugs and existing errors &amp; errors caused by the previous list and rushing to make existing code base and generally being a human applying logic in a complex system. </t>
+    <t>Strictly urgent/emergency/critical (and testing by developer)  - Code Fixes, fix bugs and existing errors &amp; errors caused by the previous list and rushing to make existing code base and generally being a human applying logic in a complex system.</t>
   </si>
   <si>
     <t>Adding features adds need to bug fix</t>
@@ -76,7 +76,7 @@
     <t>by definition emergency only means...saying...sorry can't fix that often</t>
   </si>
   <si>
-    <t>New development of more urgent requests necessary to be a consistently usable independent software (auditing, self-testing capability) </t>
+    <t>New development of more urgent requests necessary to be a consistently usable independent software (auditing, self-testing capability)</t>
   </si>
   <si>
     <t>it is what we want it to be</t>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>training is minimized to where it saves us time fixing things for them – or consultancy based</t>
+  </si>
+  <si>
+    <t>220 days a year working</t>
+  </si>
+  <si>
+    <t>per day 108K</t>
   </si>
 </sst>
 </file>
@@ -130,6 +136,7 @@
   <fonts count="5">
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -150,6 +157,7 @@
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <b val="true"/>
       <sz val="10"/>
@@ -230,31 +238,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:51"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="100">
-      <selection activeCell="G3" activeCellId="0" pane="topLeft" sqref="G3"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="74.2274509803922"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5803921568627"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.9333333333333"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.2352941176471"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.30196078431373"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3960784313725"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.5803921568627"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.8313725490196"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.5803921568627"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="18.2352941176471"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.2352941176471"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.9294117647059"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="17.5803921568627"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="17.5803921568627"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="74.5960784313725"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.6745098039216"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.0039215686275"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.3254901960784"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.31764705882353"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.478431372549"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.6745098039216"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.9294117647059"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.6745098039216"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="18.3254901960784"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.3254901960784"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.0117647058824"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="17.6745098039216"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="17.6745098039216"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.85" outlineLevel="0" r="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -265,7 +273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.85" outlineLevel="0" r="2">
       <c r="A2" s="2"/>
       <c r="B2" s="0" t="s">
         <v>3</v>
@@ -304,7 +312,7 @@
         <v>7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.95" outlineLevel="0" r="3">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.95" outlineLevel="0" r="3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -351,7 +359,7 @@
         <v>18.1818181818182</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="4">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -398,7 +406,7 @@
         <v>9.09090909090909</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.3" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.3" outlineLevel="0" r="5">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -445,7 +453,7 @@
         <v>32.7272727272727</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.3" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.3" outlineLevel="0" r="6">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -492,7 +500,7 @@
         <v>90.9090909090909</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.3" outlineLevel="0" r="7">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.3" outlineLevel="0" r="7">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -539,7 +547,7 @@
         <v>36.3636363636364</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.5" outlineLevel="0" r="8">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="24.5" outlineLevel="0" r="8">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -586,7 +594,7 @@
         <v>45.4545454545455</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.5" outlineLevel="0" r="9">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="24.5" outlineLevel="0" r="9">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -633,7 +641,7 @@
         <v>6.81818181818182</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.3" outlineLevel="0" r="10">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.3" outlineLevel="0" r="10">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -683,7 +691,7 @@
         <v>16</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="34.35" outlineLevel="0" r="11">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="34.35" outlineLevel="0" r="11">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -733,7 +741,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.5" outlineLevel="0" r="12">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="24.5" outlineLevel="0" r="12">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -780,7 +788,7 @@
         <v>20</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.5" outlineLevel="0" r="13">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="24.5" outlineLevel="0" r="13">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -827,7 +835,7 @@
         <v>27.2727272727273</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="14">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="14">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -874,7 +882,7 @@
         <v>22.7272727272727</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="15">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="15">
       <c r="A15" s="0" t="s">
         <v>23</v>
       </c>
@@ -921,7 +929,7 @@
         <v>27.2727272727273</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="16">
       <c r="A16" s="5" t="s">
         <v>24</v>
       </c>
@@ -932,7 +940,7 @@
       <c r="M16" s="4"/>
       <c r="N16" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="17">
       <c r="A17" s="2"/>
       <c r="I17" s="3"/>
       <c r="J17" s="4"/>
@@ -941,7 +949,7 @@
       <c r="M17" s="4"/>
       <c r="N17" s="3"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="18" s="7">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="18" s="7">
       <c r="A18" s="6" t="s">
         <v>25</v>
       </c>
@@ -993,9 +1001,8 @@
         <f aca="false">SUM(N3:N17)</f>
         <v>644.090909090909</v>
       </c>
-      <c r="AMJ18" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="19">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="19">
       <c r="A19" s="2"/>
       <c r="B19" s="0" t="s">
         <v>26</v>
@@ -1028,7 +1035,7 @@
         <v>644.090909090909</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="20">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="20">
       <c r="A20" s="2"/>
       <c r="B20" s="0" t="s">
         <v>28</v>
@@ -1040,7 +1047,7 @@
       <c r="M20" s="4"/>
       <c r="N20" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="21">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="21">
       <c r="A21" s="2"/>
       <c r="B21" s="0" t="s">
         <v>29</v>
@@ -1052,7 +1059,7 @@
       <c r="M21" s="4"/>
       <c r="N21" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="22">
       <c r="A22" s="2"/>
       <c r="B22" s="0" t="s">
         <v>30</v>
@@ -1064,7 +1071,7 @@
       <c r="M22" s="4"/>
       <c r="N22" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="23">
       <c r="A23" s="2"/>
       <c r="B23" s="0" t="s">
         <v>31</v>
@@ -1076,7 +1083,7 @@
       <c r="M23" s="4"/>
       <c r="N23" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="24">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="24">
       <c r="A24" s="2"/>
       <c r="B24" s="0" t="s">
         <v>32</v>
@@ -1088,7 +1095,7 @@
       <c r="M24" s="4"/>
       <c r="N24" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="25">
       <c r="A25" s="2"/>
       <c r="I25" s="3"/>
       <c r="J25" s="4"/>
@@ -1097,7 +1104,7 @@
       <c r="M25" s="4"/>
       <c r="N25" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="26">
       <c r="A26" s="2"/>
       <c r="I26" s="3"/>
       <c r="J26" s="4"/>
@@ -1106,7 +1113,7 @@
       <c r="M26" s="4"/>
       <c r="N26" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="27">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="27">
       <c r="A27" s="2" t="s">
         <v>0</v>
       </c>
@@ -1116,8 +1123,11 @@
       <c r="I27" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="28">
+      <c r="Q27" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="28">
       <c r="A28" s="2"/>
       <c r="B28" s="0" t="s">
         <v>3</v>
@@ -1155,8 +1165,15 @@
       <c r="N28" s="0" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.55" outlineLevel="0" r="29">
+      <c r="Q28" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="R28" s="0" t="n">
+        <f aca="false">108000/220</f>
+        <v>490.909090909091</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.55" outlineLevel="0" r="29">
       <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
@@ -1203,7 +1220,7 @@
         <v>18.1818181818182</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="30">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="30">
       <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
@@ -1249,8 +1266,12 @@
         <f aca="false">H30/220*100</f>
         <v>9.09090909090909</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.3" outlineLevel="0" r="31">
+      <c r="R30" s="0" t="n">
+        <f aca="false">180*7.5</f>
+        <v>1350</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.3" outlineLevel="0" r="31">
       <c r="A31" s="2" t="s">
         <v>10</v>
       </c>
@@ -1296,8 +1317,12 @@
         <f aca="false">H31/220*100</f>
         <v>32.7272727272727</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.3" outlineLevel="0" r="32">
+      <c r="R31" s="0" t="n">
+        <f aca="false">R30/R28</f>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.3" outlineLevel="0" r="32">
       <c r="A32" s="2" t="s">
         <v>11</v>
       </c>
@@ -1344,7 +1369,7 @@
         <v>90.9090909090909</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.3" outlineLevel="0" r="33">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.3" outlineLevel="0" r="33">
       <c r="A33" s="2" t="s">
         <v>12</v>
       </c>
@@ -1391,7 +1416,7 @@
         <v>36.3636363636364</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.5" outlineLevel="0" r="34">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="24.5" outlineLevel="0" r="34">
       <c r="A34" s="2" t="s">
         <v>13</v>
       </c>
@@ -1438,7 +1463,7 @@
         <v>45.4545454545455</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.5" outlineLevel="0" r="35">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="24.5" outlineLevel="0" r="35">
       <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
@@ -1485,7 +1510,7 @@
         <v>6.81818181818182</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.3" outlineLevel="0" r="36">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.3" outlineLevel="0" r="36">
       <c r="A36" s="2" t="s">
         <v>15</v>
       </c>
@@ -1532,7 +1557,7 @@
         <v>45.4545454545455</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="34.35" outlineLevel="0" r="37">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="34.35" outlineLevel="0" r="37">
       <c r="A37" s="2" t="s">
         <v>17</v>
       </c>
@@ -1579,7 +1604,7 @@
         <v>113.636363636364</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.5" outlineLevel="0" r="38">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="24.5" outlineLevel="0" r="38">
       <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
@@ -1617,7 +1642,7 @@
         <v>113.636363636364</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.5" outlineLevel="0" r="39">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="24.5" outlineLevel="0" r="39">
       <c r="A39" s="2" t="s">
         <v>21</v>
       </c>
@@ -1664,7 +1689,7 @@
         <v>27.2727272727273</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="40">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="40">
       <c r="A40" s="2" t="s">
         <v>22</v>
       </c>
@@ -1711,7 +1736,7 @@
         <v>22.7272727272727</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="41">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="41">
       <c r="A41" s="0" t="s">
         <v>23</v>
       </c>
@@ -1758,7 +1783,7 @@
         <v>27.2727272727273</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.3" outlineLevel="0" r="42">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.3" outlineLevel="0" r="42">
       <c r="A42" s="2" t="s">
         <v>24</v>
       </c>
@@ -1769,7 +1794,7 @@
       <c r="M42" s="4"/>
       <c r="N42" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="43">
       <c r="A43" s="2"/>
       <c r="I43" s="3"/>
       <c r="J43" s="4"/>
@@ -1778,7 +1803,7 @@
       <c r="M43" s="4"/>
       <c r="N43" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="44">
       <c r="A44" s="2"/>
       <c r="I44" s="3"/>
       <c r="J44" s="4"/>
@@ -1787,7 +1812,7 @@
       <c r="M44" s="4"/>
       <c r="N44" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="45">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="45">
       <c r="A45" s="6" t="s">
         <v>25</v>
       </c>
@@ -1841,7 +1866,7 @@
         <v>589.545454545454</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="46">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="46">
       <c r="A46" s="2"/>
       <c r="B46" s="0" t="s">
         <v>26</v>
@@ -1874,7 +1899,7 @@
         <v>589.545454545454</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="47">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="47">
       <c r="A47" s="2"/>
       <c r="B47" s="0" t="s">
         <v>28</v>
@@ -1886,7 +1911,7 @@
       <c r="M47" s="4"/>
       <c r="N47" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="48">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="48">
       <c r="A48" s="2"/>
       <c r="B48" s="0" t="s">
         <v>29</v>
@@ -1898,7 +1923,7 @@
       <c r="M48" s="4"/>
       <c r="N48" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="49">
       <c r="A49" s="2"/>
       <c r="B49" s="0" t="s">
         <v>30</v>
@@ -1910,7 +1935,7 @@
       <c r="M49" s="4"/>
       <c r="N49" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="50">
       <c r="A50" s="2"/>
       <c r="B50" s="0" t="s">
         <v>31</v>
@@ -1922,7 +1947,7 @@
       <c r="M50" s="4"/>
       <c r="N50" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="51">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="51">
       <c r="A51" s="2"/>
       <c r="B51" s="0" t="s">
         <v>32</v>
@@ -1952,17 +1977,17 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1977,17 +2002,17 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
